--- a/Vodovoz/Reports/Logistic/DeliveryAnalyticsReport.xlsx
+++ b/Vodovoz/Reports/Logistic/DeliveryAnalyticsReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm208\Desktop\3381\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78994E8-4414-4EB0-8A2F-7CDE871667AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389FB9DF-14D7-4654-9067-425EE2295E8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDF0E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF6FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +444,7 @@
       <protection locked="0" hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,6 +508,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,8 +535,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -535,7 +549,630 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Стиль 3581" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -786,6 +1423,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFEFF6FB"/>
       <color rgb="FFFDF0E9"/>
       <color rgb="FFFFFBEF"/>
       <color rgb="FFF5F9FD"/>
@@ -1108,7 +1746,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1143,284 +1781,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
     </row>
     <row r="2" spans="1:48" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
     </row>
     <row r="3" spans="1:48" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="27" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
     </row>
     <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="24" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="25" t="s">
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="22" t="s">
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
     </row>
     <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="26" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26" t="s">
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="24" t="s">
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="25" t="s">
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
     </row>
     <row r="6" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1641,22 +2279,22 @@
       <c r="X7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="Z7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AA7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AB7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AC7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="15" t="s">
+      <c r="AD7" s="30" t="s">
         <v>56</v>
       </c>
       <c r="AE7" s="16" t="s">
@@ -2092,73 +2730,88 @@
     <mergeCell ref="AK3:AV3"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ7:AV7 A7:F7">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="33" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AD7">
-    <cfRule type="expression" dxfId="12" priority="12">
+  <conditionalFormatting sqref="G7:X7">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7:AJ7">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7:AP7">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:E7 G7:K7 M7:Q7 S7:W7 Y7:AC7 AE7:AI7 AK7:AO7 AQ7:AU7">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>$D7&lt;&gt;$D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 L7 R7 X7 AD7 AJ7 AP7 AV7">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>$D7&lt;&gt;$D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:E7 AQ7:AU7">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:K7 M7:Q7 S7:W7 Y7:AC7">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="G7:K7 M7:Q7 S7:W7">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7:AI7">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7:AO7">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 AV7">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 R7 X7 AD7">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="L7 R7 X7">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7:AC7">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7">
+    <cfRule type="expression" dxfId="18" priority="2">
+      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7:AD7">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Vodovoz/Reports/Logistic/DeliveryAnalyticsReport.xlsx
+++ b/Vodovoz/Reports/Logistic/DeliveryAnalyticsReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm208\Desktop\3381\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389FB9DF-14D7-4654-9067-425EE2295E8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1496E-9BAE-4749-9C46-CA8DD35E86BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,136 +130,139 @@
     <t>{{item.DeliveryDate}}</t>
   </si>
   <si>
-    <t>&amp;=IF({{item.CountSmallOrdersOneMorning}}=0,"",{{item.CountSmallOrdersOneMorning}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrders19LOneMorning}}=0,"",{{item.CountSmallOrders19LOneMorning}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrdersOneMorning}}=0,"",{{item.CountBigOrdersOneMorning}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrders19LOneMorning}}=0,"",{{item.CountBigOrders19LOneMorning}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrdersOneMorning}}=0,"",{{item.SumSmallAndBigOrdersOneMorning}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrders19LOneMorning}}=0,"",{{item.SumSmallAndBigOrders19LOneMorning}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrdersOneDay}}=0,"",{{item.CountSmallOrdersOneDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrders19LOneDay}}=0,"",{{item.CountSmallOrders19LOneDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrdersOneDay}}=0,"",{{item.CountBigOrdersOneDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrders19LOneDay}}=0,"",{{item.CountBigOrders19LOneDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrdersOneDay}}=0,"",{{item.SumSmallAndBigOrdersOneDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrders19LOneDay}}=0,"",{{item.SumSmallAndBigOrders19LOneDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrdersOneEvening}}=0,"",{{item.CountSmallOrdersOneEvening}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrders19LOneEvening}}=0,"",{{item.CountSmallOrders19LOneEvening}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrdersOneEvening}}=0,"",{{item.CountBigOrdersOneEvening}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrders19LOneEvening}}=0,"",{{item.CountBigOrders19LOneEvening}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrdersOneEvening}}=0,"",{{item.SumSmallAndBigOrdersOneEvening}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrders19LOneEvening}}=0,"",{{item.SumSmallAndBigOrders19LOneEvening}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrdersOneFinal}}=0,"",{{item.CountSmallOrdersOneFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrders19LOneFinal}}=0,"",{{item.CountSmallOrders19LOneFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrdersOneFinal}}=0,"",{{item.CountBigOrdersOneFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrders19LOneFinal}}=0,"",{{item.CountBigOrders19LOneFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrdersOneFinal}}=0,"",{{item.SumSmallAndBigOrdersOneFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrders19LOneFinal}}=0,"",{{item.SumSmallAndBigOrders19LOneFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrdersTwoDay}}=0,"",{{item.CountSmallOrdersTwoDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrders19LTwoDay}}=0,"",{{item.CountSmallOrders19LTwoDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrdersTwoDay}}=0,"",{{item.CountBigOrdersTwoDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrders19LTwoDay}}=0,"",{{item.CountBigOrders19LTwoDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrdersTwoDay}}=0,"",{{item.SumSmallAndBigOrdersTwoDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrders19LTwoDay}}=0,"",{{item.SumSmallAndBigOrders19LTwoDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrdersThreeDay}}=0,"",{{item.CountSmallOrdersThreeDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrders19LThreeDay}}=0,"",{{item.CountSmallOrders19LThreeDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrdersThreeDay}}=0,"",{{item.CountBigOrdersThreeDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrders19LThreeDay}}=0,"",{{item.CountBigOrders19LThreeDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrdersThreeDay}}=0,"",{{item.SumSmallAndBigOrdersThreeDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrders19LThreeDay}}=0,"",{{item.SumSmallAndBigOrders19LThreeDay}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrdersFinal}}=0,"",{{item.CountSmallOrdersFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountSmallOrders19LFinal}}=0,"",{{item.CountSmallOrders19LFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrdersFinal}}=0,"",{{item.CountBigOrdersFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.CountBigOrders19LFinal}}=0,"",{{item.CountBigOrders19LFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrdersFinal}}=0,"",{{item.SumSmallAndBigOrdersFinal}})</t>
-  </si>
-  <si>
-    <t>&amp;=IF({{item.SumSmallAndBigOrders19LFinal}}=0,"",{{item.SumSmallAndBigOrders19LFinal}})</t>
+    <t>{{item.CountSmallOrdersOneMorning}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrders19LOneMorning}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrdersOneMorning}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrders19LOneMorning}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrdersOneMorning}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrders19LOneMorning}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrdersOneDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrders19LOneDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrdersOneDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrders19LOneDay}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrdersOneDay}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrders19LOneDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrdersOneEvening}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrders19LOneEvening}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrdersOneEvening}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrders19LOneEvening}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrdersOneEvening}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrders19LOneEvening}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrdersOneFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrders19LOneFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrdersOneFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrders19LOneFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrdersOneFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrders19LOneFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrdersTwoDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrders19LTwoDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrdersTwoDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrders19LTwoDay}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrdersTwoDay}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrders19LTwoDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrdersThreeDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrders19LThreeDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrdersThreeDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrders19LThreeDay}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrdersThreeDay}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrders19LThreeDay}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrdersFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.CountSmallOrders19LFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrdersFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.CountBigOrders19LFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrdersFinal}}</t>
+  </si>
+  <si>
+    <t>{{item.SumSmallAndBigOrders19LFinal}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0;\-0;;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -310,7 +313,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,12 +371,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDF0E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFF6FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,35 +475,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -535,13 +508,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -549,225 +546,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Стиль 3581" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -809,369 +588,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1746,7 +1165,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1781,284 +1200,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
     </row>
     <row r="2" spans="1:48" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
     </row>
     <row r="3" spans="1:48" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="28" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
     </row>
     <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="25" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="26" t="s">
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="23" t="s">
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
     </row>
     <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="27" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="25" t="s">
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="26" t="s">
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
     </row>
     <row r="6" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2225,130 +1644,130 @@
       <c r="F7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="29" t="s">
+      <c r="Z7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AA7" s="29" t="s">
+      <c r="AA7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="29" t="s">
+      <c r="AC7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="30" t="s">
+      <c r="AD7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AE7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AF7" s="16" t="s">
+      <c r="AF7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AG7" s="16" t="s">
+      <c r="AG7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AH7" s="16" t="s">
+      <c r="AH7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AI7" s="16" t="s">
+      <c r="AI7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AJ7" s="17" t="s">
+      <c r="AJ7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AK7" s="18" t="s">
+      <c r="AK7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AL7" s="18" t="s">
+      <c r="AL7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AM7" s="18" t="s">
+      <c r="AM7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AN7" s="18" t="s">
+      <c r="AN7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AO7" s="18" t="s">
+      <c r="AO7" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AP7" s="19" t="s">
+      <c r="AP7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AQ7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AR7" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AS7" s="12" t="s">
+      <c r="AS7" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AT7" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AU7" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AV7" s="13" t="s">
+      <c r="AV7" s="30" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2712,6 +2131,7 @@
       <c r="AV15" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="15">
     <mergeCell ref="A3:AJ3"/>
     <mergeCell ref="A1:AV1"/>
@@ -2730,87 +2150,88 @@
     <mergeCell ref="AK3:AV3"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ7:AV7 A7:F7">
-    <cfRule type="expression" dxfId="33" priority="16">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:X7">
-    <cfRule type="expression" dxfId="32" priority="15">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7:AJ7">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7:AP7">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:E7 G7:K7 M7:Q7 S7:W7 Y7:AC7 AE7:AI7 AK7:AO7 AQ7:AU7">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>$D7&lt;&gt;$D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 L7 R7 X7 AD7 AJ7 AP7 AV7">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>$D7&lt;&gt;$D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:E7 AQ7:AU7">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:K7 M7:Q7 S7:W7">
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7:AI7">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7:AO7">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 AV7">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 R7 X7">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7:AC7">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AD7">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Vodovoz/Reports/Logistic/DeliveryAnalyticsReport.xlsx
+++ b/Vodovoz/Reports/Logistic/DeliveryAnalyticsReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm208\Desktop\3381\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1496E-9BAE-4749-9C46-CA8DD35E86BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB500BA-ACAD-4A76-8487-5AFF8E658079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28380" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0;\-0;;@"/>
+    <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -313,7 +313,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,30 +348,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFF6EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F9FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFBEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDF0E9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -441,7 +417,7 @@
       <protection locked="0" hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,70 +449,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1165,7 +1117,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1200,284 +1152,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
     </row>
     <row r="2" spans="1:48" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
     </row>
     <row r="3" spans="1:48" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="22" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
     </row>
     <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="19" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="20" t="s">
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="17" t="s">
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
     </row>
     <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="21" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21" t="s">
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="19" t="s">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="20" t="s">
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
     </row>
     <row r="6" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1626,22 +1578,22 @@
       </c>
     </row>
     <row r="7" spans="1:48" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="22" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="23" t="s">
@@ -1716,58 +1668,58 @@
       <c r="AD7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="25" t="s">
+      <c r="AE7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AF7" s="25" t="s">
+      <c r="AF7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AG7" s="25" t="s">
+      <c r="AG7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AH7" s="25" t="s">
+      <c r="AH7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AI7" s="25" t="s">
+      <c r="AI7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AJ7" s="26" t="s">
+      <c r="AJ7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AK7" s="27" t="s">
+      <c r="AK7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AL7" s="27" t="s">
+      <c r="AL7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AM7" s="27" t="s">
+      <c r="AM7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AN7" s="27" t="s">
+      <c r="AN7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AO7" s="27" t="s">
+      <c r="AO7" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AP7" s="28" t="s">
+      <c r="AP7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AQ7" s="29" t="s">
+      <c r="AQ7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AR7" s="29" t="s">
+      <c r="AR7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AS7" s="29" t="s">
+      <c r="AS7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AT7" s="29" t="s">
+      <c r="AT7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AU7" s="29" t="s">
+      <c r="AU7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AV7" s="30" t="s">
+      <c r="AV7" s="24" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2149,92 +2101,6 @@
     <mergeCell ref="AK5:AP5"/>
     <mergeCell ref="AK3:AV3"/>
   </mergeCells>
-  <conditionalFormatting sqref="AQ7:AV7 A7:F7">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:X7">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7:AJ7">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7:AP7">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:E7 G7:K7 M7:Q7 S7:W7 Y7:AC7 AE7:AI7 AK7:AO7 AQ7:AU7">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>$D7&lt;&gt;$D8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7 L7 R7 X7 AD7 AJ7 AP7 AV7">
-    <cfRule type="expression" dxfId="12" priority="19">
-      <formula>$D7&lt;&gt;$D8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:E7 AQ7:AU7">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:K7 M7:Q7 S7:W7">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7:AI7">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7:AO7">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7 AV7">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7 R7 X7">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AC7">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD7">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(MOD(ROW(),2)=1,$D7&lt;&gt;$D8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
